--- a/cam3_validation.xlsx
+++ b/cam3_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A5ABA5-99C5-4C8C-B64A-F2F924A1D145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F566A-725C-4F6E-A1E8-1EAA3FEDEDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24583" yWindow="4886" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18369" yWindow="3257" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>850.60400000000004</v>
+        <v>888.95100000000002</v>
       </c>
       <c r="B1" s="1">
-        <v>1022.227</v>
+        <v>1022.372</v>
       </c>
       <c r="C1" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,13 +372,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>875.17499999999995</v>
+        <v>907.91800000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1796.6210000000001</v>
+        <v>1774.08</v>
       </c>
       <c r="C2" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D2" s="1">
         <v>-16.07</v>
@@ -387,253 +387,253 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>869.37699999999995</v>
+        <v>903.03</v>
       </c>
       <c r="B3" s="1">
-        <v>1691.1869999999999</v>
+        <v>1669.9069999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>865.17200000000003</v>
+        <v>899.02499999999998</v>
       </c>
       <c r="B4" s="1">
-        <v>1592.1420000000001</v>
+        <v>1570.308</v>
       </c>
       <c r="C4" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.98</v>
+        <v>-11.93</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>861.197</v>
+        <v>895.98699999999997</v>
       </c>
       <c r="B5" s="1">
-        <v>1495.394</v>
+        <v>1476.0509999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>858.12</v>
+        <v>893.41399999999999</v>
       </c>
       <c r="B6" s="1">
-        <v>1398.7750000000001</v>
+        <v>1381.423</v>
       </c>
       <c r="C6" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>855.678</v>
+        <v>891.43299999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1304.6790000000001</v>
+        <v>1288.675</v>
       </c>
       <c r="C7" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.98</v>
+        <v>-5.93</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>853.48800000000006</v>
+        <v>889.82799999999997</v>
       </c>
       <c r="B8" s="1">
-        <v>1209.4490000000001</v>
+        <v>1197.2619999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>851.83199999999999</v>
+        <v>889.04499999999996</v>
       </c>
       <c r="B9" s="1">
-        <v>1114.7059999999999</v>
+        <v>1106.269</v>
       </c>
       <c r="C9" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>850.58600000000001</v>
+        <v>888.91800000000001</v>
       </c>
       <c r="B10" s="1">
-        <v>1020.534</v>
+        <v>1015.78</v>
       </c>
       <c r="C10" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>850.03499999999997</v>
+        <v>889.33299999999997</v>
       </c>
       <c r="B11" s="1">
-        <v>924.70299999999997</v>
+        <v>925.13599999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>849.952</v>
+        <v>890.21199999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>828.65499999999997</v>
+        <v>835.16600000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>850.54700000000003</v>
+        <v>891.69</v>
       </c>
       <c r="B13" s="1">
-        <v>732.02700000000004</v>
+        <v>744.34900000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D13" s="1">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>851.84500000000003</v>
+        <v>893.81100000000004</v>
       </c>
       <c r="B14" s="1">
-        <v>633.80200000000002</v>
+        <v>652.91200000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D14" s="1">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>853.5</v>
+        <v>896.73500000000001</v>
       </c>
       <c r="B15" s="1">
-        <v>530.68399999999997</v>
+        <v>559.10799999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D15" s="1">
-        <v>10.029999999999999</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>855.721</v>
+        <v>900.11199999999997</v>
       </c>
       <c r="B16" s="1">
-        <v>432.43799999999999</v>
+        <v>461.04599999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D16" s="1">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>858.899</v>
+        <v>904.49</v>
       </c>
       <c r="B17" s="1">
-        <v>330.78</v>
+        <v>367.10899999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D17" s="1">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>862.23400000000004</v>
+        <v>908.99900000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>227.512</v>
+        <v>271.14800000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="D18" s="1">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>832.50800000000004</v>
+        <v>870.96</v>
       </c>
       <c r="B19" s="1">
-        <v>1022.307</v>
+        <v>1022.602</v>
       </c>
       <c r="C19" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +642,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>856.49900000000002</v>
+        <v>889.19399999999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1795.5060000000001</v>
+        <v>1773.9829999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>851.11900000000003</v>
+        <v>884.52</v>
       </c>
       <c r="B21" s="1">
-        <v>1690.4590000000001</v>
+        <v>1669.5419999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>846.96199999999999</v>
+        <v>880.745</v>
       </c>
       <c r="B22" s="1">
-        <v>1591.6079999999999</v>
+        <v>1570.5219999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.98</v>
+        <v>-11.92</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>843.07500000000005</v>
+        <v>877.55700000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>1494.7380000000001</v>
+        <v>1476.818</v>
       </c>
       <c r="C23" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>840.05799999999999</v>
+        <v>874.947</v>
       </c>
       <c r="B24" s="1">
-        <v>1398.3109999999999</v>
+        <v>1382.3440000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.95</v>
+        <v>-7.92</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>837.52099999999996</v>
+        <v>873.29399999999998</v>
       </c>
       <c r="B25" s="1">
-        <v>1304.3610000000001</v>
+        <v>1290.1559999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.98</v>
+        <v>-5.9</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>835.26700000000005</v>
+        <v>871.85799999999995</v>
       </c>
       <c r="B26" s="1">
-        <v>1209.8230000000001</v>
+        <v>1198.808</v>
       </c>
       <c r="C26" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.98</v>
+        <v>-3.92</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>833.70399999999995</v>
+        <v>871</v>
       </c>
       <c r="B27" s="1">
-        <v>1114.847</v>
+        <v>1106.5530000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>832.49599999999998</v>
+        <v>870.923</v>
       </c>
       <c r="B28" s="1">
-        <v>1020.373</v>
+        <v>1017.231</v>
       </c>
       <c r="C28" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>831.98500000000001</v>
+        <v>871.096</v>
       </c>
       <c r="B29" s="1">
-        <v>925.25099999999998</v>
+        <v>927.88400000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>831.71299999999997</v>
+        <v>872.029</v>
       </c>
       <c r="B30" s="1">
-        <v>829.35199999999998</v>
+        <v>836.93700000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>832.43299999999999</v>
+        <v>873.55399999999997</v>
       </c>
       <c r="B31" s="1">
-        <v>733.20500000000004</v>
+        <v>745.68600000000004</v>
       </c>
       <c r="C31" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>833.27300000000002</v>
+        <v>875.56799999999998</v>
       </c>
       <c r="B32" s="1">
-        <v>634.40200000000004</v>
+        <v>654.08699999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D32" s="1">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>835.30399999999997</v>
+        <v>878.33799999999997</v>
       </c>
       <c r="B33" s="1">
-        <v>531.82799999999997</v>
+        <v>561.91399999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D33" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>837.39400000000001</v>
+        <v>881.81600000000003</v>
       </c>
       <c r="B34" s="1">
-        <v>434.197</v>
+        <v>463.50200000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D34" s="1">
-        <v>11.98</v>
+        <v>12.07</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>840.00599999999997</v>
+        <v>885.75400000000002</v>
       </c>
       <c r="B35" s="1">
-        <v>332.387</v>
+        <v>369.13099999999997</v>
       </c>
       <c r="C35" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D35" s="1">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>843.654</v>
+        <v>890.03599999999994</v>
       </c>
       <c r="B36" s="1">
-        <v>229.01599999999999</v>
+        <v>273.346</v>
       </c>
       <c r="C36" s="1">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="D36" s="1">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>815.82</v>
+        <v>853.97900000000004</v>
       </c>
       <c r="B37" s="1">
-        <v>1022.611</v>
+        <v>1022.442</v>
       </c>
       <c r="C37" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,268 +912,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>839.31100000000004</v>
+        <v>871.58399999999995</v>
       </c>
       <c r="B38" s="1">
-        <v>1794.462</v>
+        <v>1773.3879999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>834.15200000000004</v>
+        <v>867.38699999999994</v>
       </c>
       <c r="B39" s="1">
-        <v>1690.242</v>
+        <v>1669.559</v>
       </c>
       <c r="C39" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>830.13199999999995</v>
+        <v>863.5</v>
       </c>
       <c r="B40" s="1">
-        <v>1591.1389999999999</v>
+        <v>1570.33</v>
       </c>
       <c r="C40" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.98</v>
+        <v>-11.92</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>826.27300000000002</v>
+        <v>860.53499999999997</v>
       </c>
       <c r="B41" s="1">
-        <v>1493.8009999999999</v>
+        <v>1476.355</v>
       </c>
       <c r="C41" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>823.45699999999999</v>
+        <v>858.23699999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1397.9960000000001</v>
+        <v>1382.0350000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.95</v>
+        <v>-7.92</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>820.66</v>
+        <v>856.29600000000005</v>
       </c>
       <c r="B43" s="1">
-        <v>1303.914</v>
+        <v>1289.1759999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.98</v>
+        <v>-5.92</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>818.57799999999997</v>
+        <v>854.99099999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>1209.6890000000001</v>
+        <v>1197.568</v>
       </c>
       <c r="C44" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>816.78499999999997</v>
+        <v>854.08</v>
       </c>
       <c r="B45" s="1">
-        <v>1114.925</v>
+        <v>1107.529</v>
       </c>
       <c r="C45" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>815.76400000000001</v>
+        <v>853.98400000000004</v>
       </c>
       <c r="B46" s="1">
-        <v>1020.654</v>
+        <v>1017.444</v>
       </c>
       <c r="C46" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>815.02800000000002</v>
+        <v>854.14499999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>925.75</v>
+        <v>928.31700000000001</v>
       </c>
       <c r="C47" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>814.92700000000002</v>
+        <v>855.24800000000005</v>
       </c>
       <c r="B48" s="1">
-        <v>829.74</v>
+        <v>837.29</v>
       </c>
       <c r="C48" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>815.49599999999998</v>
+        <v>856.64700000000005</v>
       </c>
       <c r="B49" s="1">
-        <v>733.69899999999996</v>
+        <v>746.84900000000005</v>
       </c>
       <c r="C49" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D49" s="1">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>816.41499999999996</v>
+        <v>858.53200000000004</v>
       </c>
       <c r="B50" s="1">
-        <v>634.69500000000005</v>
+        <v>655.34</v>
       </c>
       <c r="C50" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D50" s="1">
-        <v>7.9</v>
+        <v>8.08</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>818.33299999999997</v>
+        <v>861.31899999999996</v>
       </c>
       <c r="B51" s="1">
-        <v>531.88400000000001</v>
+        <v>562.99199999999996</v>
       </c>
       <c r="C51" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D51" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>820.09</v>
+        <v>864.64499999999998</v>
       </c>
       <c r="B52" s="1">
-        <v>434.90800000000002</v>
+        <v>465.11599999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D52" s="1">
-        <v>11.98</v>
+        <v>12.07</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>822.98699999999997</v>
+        <v>868.52</v>
       </c>
       <c r="B53" s="1">
-        <v>333.202</v>
+        <v>370.63499999999999</v>
       </c>
       <c r="C53" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D53" s="1">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>826.05399999999997</v>
+        <v>872.774</v>
       </c>
       <c r="B54" s="1">
-        <v>230.36099999999999</v>
+        <v>274.79399999999998</v>
       </c>
       <c r="C54" s="1">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="D54" s="1">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>800.14400000000001</v>
+        <v>838.40599999999995</v>
       </c>
       <c r="B55" s="1">
-        <v>1022.23</v>
+        <v>1022.27</v>
       </c>
       <c r="C55" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>823.29200000000003</v>
+        <v>855.53499999999997</v>
       </c>
       <c r="B56" s="1">
-        <v>1793.798</v>
+        <v>1771.0889999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D56" s="1">
         <v>-16.07</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>818.1</v>
+        <v>851.29600000000005</v>
       </c>
       <c r="B57" s="1">
-        <v>1688.692</v>
+        <v>1667.6</v>
       </c>
       <c r="C57" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D57" s="1">
         <v>-13.98</v>
@@ -1212,238 +1212,238 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>814.26199999999994</v>
+        <v>847.56600000000003</v>
       </c>
       <c r="B58" s="1">
-        <v>1590.028</v>
+        <v>1569.1849999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.98</v>
+        <v>-11.93</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>810.51800000000003</v>
+        <v>844.61500000000001</v>
       </c>
       <c r="B59" s="1">
-        <v>1493.3</v>
+        <v>1475.192</v>
       </c>
       <c r="C59" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>807.57399999999996</v>
+        <v>842.44100000000003</v>
       </c>
       <c r="B60" s="1">
-        <v>1398.019</v>
+        <v>1381.53</v>
       </c>
       <c r="C60" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>805.21600000000001</v>
+        <v>840.60900000000004</v>
       </c>
       <c r="B61" s="1">
-        <v>1303.8530000000001</v>
+        <v>1288.808</v>
       </c>
       <c r="C61" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.98</v>
+        <v>-5.93</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>802.98</v>
+        <v>839.221</v>
       </c>
       <c r="B62" s="1">
-        <v>1209.2329999999999</v>
+        <v>1196.943</v>
       </c>
       <c r="C62" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>801.38400000000001</v>
+        <v>838.79700000000003</v>
       </c>
       <c r="B63" s="1">
-        <v>1115.0039999999999</v>
+        <v>1106.674</v>
       </c>
       <c r="C63" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>800.17100000000005</v>
+        <v>838.27</v>
       </c>
       <c r="B64" s="1">
-        <v>1020.679</v>
+        <v>1017.111</v>
       </c>
       <c r="C64" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>799.46699999999998</v>
+        <v>838.93399999999997</v>
       </c>
       <c r="B65" s="1">
-        <v>925.75699999999995</v>
+        <v>926.23199999999997</v>
       </c>
       <c r="C65" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>799.48699999999997</v>
+        <v>839.79</v>
       </c>
       <c r="B66" s="1">
-        <v>829.86199999999997</v>
+        <v>836.86900000000003</v>
       </c>
       <c r="C66" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>799.98</v>
+        <v>841.04100000000005</v>
       </c>
       <c r="B67" s="1">
-        <v>734.053</v>
+        <v>745.173</v>
       </c>
       <c r="C67" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D67" s="1">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>800.81299999999999</v>
+        <v>842.95299999999997</v>
       </c>
       <c r="B68" s="1">
-        <v>635.21299999999997</v>
+        <v>654.02</v>
       </c>
       <c r="C68" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D68" s="1">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>802.40200000000004</v>
+        <v>845.5</v>
       </c>
       <c r="B69" s="1">
-        <v>532.50699999999995</v>
+        <v>562.10900000000004</v>
       </c>
       <c r="C69" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D69" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>804.077</v>
+        <v>848.85699999999997</v>
       </c>
       <c r="B70" s="1">
-        <v>435.52800000000002</v>
+        <v>464.14699999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D70" s="1">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>806.93299999999999</v>
+        <v>852.62599999999998</v>
       </c>
       <c r="B71" s="1">
-        <v>333.87900000000002</v>
+        <v>370.40699999999998</v>
       </c>
       <c r="C71" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D71" s="1">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>809.83500000000004</v>
+        <v>856.67600000000004</v>
       </c>
       <c r="B72" s="1">
-        <v>231.16300000000001</v>
+        <v>274.74200000000002</v>
       </c>
       <c r="C72" s="1">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>785.774</v>
+        <v>823.971</v>
       </c>
       <c r="B73" s="1">
-        <v>1022.236</v>
+        <v>1022.191</v>
       </c>
       <c r="C73" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>808.23400000000004</v>
+        <v>840.548</v>
       </c>
       <c r="B74" s="1">
-        <v>1792.444</v>
+        <v>1770.748</v>
       </c>
       <c r="C74" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D74" s="1">
         <v>-16.07</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>803.34699999999998</v>
+        <v>836.41300000000001</v>
       </c>
       <c r="B75" s="1">
-        <v>1688.271</v>
+        <v>1666.89</v>
       </c>
       <c r="C75" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D75" s="1">
         <v>-13.98</v>
@@ -1482,226 +1482,226 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>799.52599999999995</v>
+        <v>832.928</v>
       </c>
       <c r="B76" s="1">
-        <v>1590.472</v>
+        <v>1569.193</v>
       </c>
       <c r="C76" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.98</v>
+        <v>-11.95</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>796.06700000000001</v>
+        <v>830.28700000000003</v>
       </c>
       <c r="B77" s="1">
-        <v>1493.653</v>
+        <v>1474.057</v>
       </c>
       <c r="C77" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>793.10500000000002</v>
+        <v>827.79200000000003</v>
       </c>
       <c r="B78" s="1">
-        <v>1397.973</v>
+        <v>1380.133</v>
       </c>
       <c r="C78" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>790.65499999999997</v>
+        <v>826</v>
       </c>
       <c r="B79" s="1">
-        <v>1303.778</v>
+        <v>1288</v>
       </c>
       <c r="C79" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.98</v>
+        <v>-5.9</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>788.48099999999999</v>
+        <v>824.94100000000003</v>
       </c>
       <c r="B80" s="1">
-        <v>1208.7360000000001</v>
+        <v>1197.635</v>
       </c>
       <c r="C80" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>786.65300000000002</v>
+        <v>824.03499999999997</v>
       </c>
       <c r="B81" s="1">
-        <v>1114.6980000000001</v>
+        <v>1107.51</v>
       </c>
       <c r="C81" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>785.72699999999998</v>
+        <v>823.96199999999999</v>
       </c>
       <c r="B82" s="1">
-        <v>1020.785</v>
+        <v>1017.374</v>
       </c>
       <c r="C82" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>785.04499999999996</v>
+        <v>824.06600000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>926.07600000000002</v>
+        <v>927.29200000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>784.78899999999999</v>
+        <v>825.03700000000003</v>
       </c>
       <c r="B84" s="1">
-        <v>830.06299999999999</v>
+        <v>837.39200000000005</v>
       </c>
       <c r="C84" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D84" s="1">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>785.15800000000002</v>
+        <v>826.48599999999999</v>
       </c>
       <c r="B85" s="1">
-        <v>734.07399999999996</v>
+        <v>745.82899999999995</v>
       </c>
       <c r="C85" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D85" s="1">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>786.22900000000004</v>
+        <v>828.38599999999997</v>
       </c>
       <c r="B86" s="1">
-        <v>635.89800000000002</v>
+        <v>656.18799999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D86" s="1">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>787.55100000000004</v>
+        <v>830.678</v>
       </c>
       <c r="B87" s="1">
-        <v>533.81500000000005</v>
+        <v>563.41999999999996</v>
       </c>
       <c r="C87" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D87" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>789.44899999999996</v>
+        <v>833.99300000000005</v>
       </c>
       <c r="B88" s="1">
-        <v>436.39</v>
+        <v>465.02100000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D88" s="1">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>791.95899999999995</v>
+        <v>837.74</v>
       </c>
       <c r="B89" s="1">
-        <v>335.85</v>
+        <v>371.5</v>
       </c>
       <c r="C89" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D89" s="1">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>794.62599999999998</v>
+        <v>841.54700000000003</v>
       </c>
       <c r="B90" s="1">
-        <v>232.27199999999999</v>
+        <v>275.68599999999998</v>
       </c>
       <c r="C90" s="1">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="E90" s="1"/>
     </row>
